--- a/tmp/pedimentos.xlsx
+++ b/tmp/pedimentos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="8655" tabRatio="504"/>
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
-  <si>
-    <t>AEROPUERTO CD DE MEXICO</t>
-  </si>
-  <si>
-    <t>1429</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>MIAMI</t>
   </si>
@@ -30,88 +24,13 @@
     <t>AICM</t>
   </si>
   <si>
-    <t>001429</t>
+    <t>13 53 3061 3002049</t>
   </si>
   <si>
-    <t>1429A</t>
+    <t>13-802240</t>
   </si>
   <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
-    <t>1758</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>02754</t>
-  </si>
-  <si>
-    <t>14-02753</t>
-  </si>
-  <si>
-    <t>AEROPUERTO INT CANCUN</t>
-  </si>
-  <si>
-    <t>00894</t>
-  </si>
-  <si>
-    <t>0894</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>AEROPUERTO INTER CANCUN</t>
-  </si>
-  <si>
-    <t>001463</t>
-  </si>
-  <si>
-    <t>14-801405</t>
-  </si>
-  <si>
-    <t>12121212AAA</t>
-  </si>
-  <si>
-    <t>34343434BBB</t>
-  </si>
-  <si>
-    <t>56565656DDD</t>
-  </si>
-  <si>
-    <t>89898989FFF</t>
-  </si>
-  <si>
-    <t>123123123GG</t>
-  </si>
-  <si>
-    <t>456456456HH</t>
-  </si>
-  <si>
-    <t>789789789II</t>
-  </si>
-  <si>
-    <t>1234512345M</t>
-  </si>
-  <si>
-    <t>6789678906N</t>
-  </si>
-  <si>
-    <t>144735224001994</t>
-  </si>
-  <si>
-    <t>01/10/2023</t>
-  </si>
-  <si>
-    <t>8034104758163</t>
-  </si>
-  <si>
-    <t>67676767EEE</t>
+    <t>19/12/2013</t>
   </si>
 </sst>
 </file>
@@ -121,7 +40,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +62,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Monaco"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -166,33 +79,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD7D7D7"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD7D7D7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD7D7D7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,13 +391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -510,208 +406,21 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -738,7 +447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp/pedimentos.xlsx
+++ b/tmp/pedimentos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="8655" tabRatio="504"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21255" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,30 +16,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+  <si>
+    <t>AICM</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>lote-01</t>
+  </si>
+  <si>
+    <t>lote-02</t>
+  </si>
+  <si>
+    <t>lote-03</t>
+  </si>
+  <si>
+    <t>lote-04</t>
+  </si>
+  <si>
+    <t>lote-05</t>
+  </si>
+  <si>
+    <t>lote-06</t>
+  </si>
+  <si>
+    <t>lote-07</t>
+  </si>
+  <si>
+    <t>lote-08</t>
+  </si>
+  <si>
+    <t>lote-09</t>
+  </si>
+  <si>
+    <t>lote-10</t>
+  </si>
   <si>
     <t>MIAMI</t>
-  </si>
-  <si>
-    <t>AICM</t>
-  </si>
-  <si>
-    <t>13 53 3061 3002049</t>
-  </si>
-  <si>
-    <t>13-802240</t>
-  </si>
-  <si>
-    <t>19/12/2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode=";;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,18 +70,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,19 +108,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,41 +424,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1">
+        <v>134735223004059</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>135330613002049</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>135330613000307</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>134735223002677</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>135330613001327</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>135330613000523</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>134735223000061</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>134735223000062</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>124735222003488</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>124735222003487</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tmp/pedimentos.xlsx
+++ b/tmp/pedimentos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21255" windowHeight="10440"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="9255" windowHeight="8550" tabRatio="504"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,51 +16,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>AICM</t>
   </si>
   <si>
+    <t>13-802240</t>
+  </si>
+  <si>
+    <t>CANCUN</t>
+  </si>
+  <si>
+    <t>12-03350</t>
+  </si>
+  <si>
+    <t>12-03288</t>
+  </si>
+  <si>
+    <t>13-00085</t>
+  </si>
+  <si>
+    <t>13-03918</t>
+  </si>
+  <si>
+    <t>13-800505</t>
+  </si>
+  <si>
     <t>12/19/2013</t>
   </si>
   <si>
-    <t>lote-01</t>
-  </si>
-  <si>
-    <t>lote-02</t>
-  </si>
-  <si>
-    <t>lote-03</t>
-  </si>
-  <si>
-    <t>lote-04</t>
-  </si>
-  <si>
-    <t>lote-05</t>
-  </si>
-  <si>
-    <t>lote-06</t>
-  </si>
-  <si>
-    <t>lote-07</t>
-  </si>
-  <si>
-    <t>lote-08</t>
-  </si>
-  <si>
-    <t>lote-09</t>
-  </si>
-  <si>
-    <t>lote-10</t>
-  </si>
-  <si>
-    <t>MIAMI</t>
+    <t>12/24/2012</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>124735222003487</t>
+  </si>
+  <si>
+    <t>124735222003488</t>
+  </si>
+  <si>
+    <t>134735223000062</t>
+  </si>
+  <si>
+    <t>134735223004059</t>
+  </si>
+  <si>
+    <t>135330613000523</t>
+  </si>
+  <si>
+    <t>135330613002049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,25 +91,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,24 +122,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,189 +439,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>134735223004059</v>
+      <c r="A1" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>135330613002049</v>
+      <c r="A2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>135330613000307</v>
+      <c r="A3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>134735223002677</v>
+      <c r="A4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>135330613001327</v>
+      <c r="A5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>135330613000523</v>
+      <c r="A6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>134735223000061</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>134735223000062</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>124735222003488</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>124735222003487</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
